--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7E4BC"/>
+        <bgColor rgb="00D7E4BC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +51,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +426,898 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="199" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Titles</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A Former International Antitrust Fugitive Discusses His Experiences</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bonner Springs man convicted of mail theft</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arrest made following alleged indecent act in Epsom</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A Look At A Possible Corporate Transparency Act Exemption</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Oh great, anti-vaxxer RFK Jr. officially in charge of health care now</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Father Arrested in Stara Zagora for Assaulting His Daughters, One Hospitalized</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bulgarian Politics: Kiril Petkov Faces Trial Over Boyko Borissov's Arrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Woman charged in husband’s traffic death arrested in Ohio after skipped court date</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Maryland Woman Pleads Guilty to Felony Theft After Stealing $65,000 to Pay Restitution</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cabot Lodge Securities: Regulatory Actions and Investor Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Teddi Mellencamp Being Sued by Former Employee Amid Health Battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kauai police arrest suspect in critical hit-and-run</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MHP trooper faces sexual battery charge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Buffalo man arrested in connection to a string of burglaries during the past month</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RAY MASSEY: Audi's new electric A6 e-tron is charged with joy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentine Court Issues Warrants For Myanmar Officials Accused Of Rohingya 'Genocide'</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Former Texas, Washington WR Johntay Cook arrested for marijuana possession</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Confusing Injury-In-Fact Rules Hinder Federal Practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Feds allege Las Vegas man bilked investors of $24M in ponzi scheme</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>‘Without Provocation’: Florida Attorney Arrested After Allegedly Breaking Plate Over a Father’s Head at Wedding Reception Because He Allowed Family Members to Join Him In Buffer Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Former Texas Longhorns wide receiver arrested for second time in 10 days, records show</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>West Springfield business fined in connection with gasoline spill</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2 private surgery clinic contracts in limbo amid Alberta corruption allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2/15/2025: NATIONAL: Ex-staffer busted for embezzling B10m from SSF</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2/15/2025: NATIONAL: Doctor charged with fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2/15/2025: BUSINESS: Task force to probe inferior products</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Update: Arrest following indecent act, Epsom</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>$100 billion in COVID-era unemployment fraud targeted by Republicans</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>New leader takes charge of DLA Aviation activity at NAS Jacksonville</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Louisiana governor moves to extradite NY doctor (indicted by LA grand jury) who provided abortion pills to LA teen, NY governor denies the order</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>U.S. Attorney Trini Ross submits her resignation</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Former Texas wide receiver arrested for the second time in two weeks</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>St. Louis sheriff's deputy under investigation for detainee sexual assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Daughters of Target's Late Cofounder Raise Concern Over Company's Pullback on DEI Efforts</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>City of Seattle workers allege wage theft in proposed class action</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Daughters of Target’s late cofounder raise concern over company’s pullback on DEI efforts</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Summit County deputies arrest man suspected of hiding camera in bathroom and assist in Quandary Peak rescue</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mahoning Co. Jail looking to house illegal immigrants arrested by ICE, Homeland Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Restaurant worker at Universal Orlando Citywalk files lawsuit over wage theft</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Aberdeenshire priest resigns her cure over bullying bishop</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SLPD Chief fired for alleged misconduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>'Your right as a freeborn Englishman!' Tom Harwood fumes at man arrested for burning religious text</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sandiganbayan orders arrest of ex-mayor of Negros Occidental town</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Casino Group Fails to Convince Appeals Court to Revive Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>REGN INVESTOR ALERT: Bronstein, Gewirtz &amp; Grossman LLC Announces that Regeneron Pharmaceuticals, Inc. Investors with Substantial Losses Have Opportunity to Lead Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Utah man charged with making, throwing Molotov cocktails at BYU</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp;amp; Check, LLP Class Action Announcement NMRA: A Securities Fraud Class Action Lawsuit Was Filed Against Neumora Therapeutics, Inc. (NMRA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ALAR INVESTOR ALERT: Robbins Geller Rudman &amp; Dowd LLP Announces that Alarum Technologies Ltd. Investors with Substantial Losses Have Opportunity to Lead the Alarum Technologies Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Texas judge orders New York doctor, also charged in another state, to pay fine for prescribing abortion pills</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TGT INVESTOR ALERT: Bronstein, Gewirtz &amp;amp; Grossman LLC Announces that Target Corporation Investors with Substantial Losses Have Opportunity to Lead Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EIX INVESTOR ALERT: Bronstein, Gewirtz &amp;amp; Grossman LLC Announces that Edison International Investors with Substantial Losses Have Opportunity to Lead Class Action Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Port Charlotte High School student arrested for possession of BB gun</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gainey McKenna &amp; Egleston Announces A Class Action Lawsuit Has Been Filed Against FMC Corporation (FMC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Provisional liquidators appointed to Cork medical supplies company</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fraud and Chargeback Trends to Watch in 2025 (Rolands Selakovs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>OPP Investigating Theft And Fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Former Texas Longhorns, DeSoto WR arrested for second time in 10 days, records show</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>New York Doctor Blocked From Prescribing Abortion Drugs to Texans</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NXT Investor Reminder: Kessler Topaz Meltzer &amp; Check, LLP Reminds Investors of Securities Fraud Class Action Lawsuit Filed Against Nextracker Inc. (NXT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EQUITY ALERT: Rosen Law Firm Files Securities Class Action Lawsuit on Behalf of TransMedics Group, Inc. Investors – TMDX</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tajikistan Faces Challenges in Its Pursuit of AI Dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ROSEN, A GLOBAL AND LEADING LAW FIRM, Encourages Merck &amp; Co., Inc. Investors to Secure Counsel Before Important Deadline in Securities Class Action – MRK</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Queen Anne Man Arrested Following Seattle Police, Internet Crimes Against Children Task Force Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TGT Investors Have Opportunity to Lead Target Corporation Securities Fraud Lawsuit with the Schall Law Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Daughters of Target's late cofounder raise concern over company's pullback on DEI efforts</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>'Ride or Die': Ryan Reynolds &amp; Blake Lively Receive Support from Talent Agency CEO Who Fired Justin Baldoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Woman Arrested For Hit-And-Run After Scraping Car On A Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Olathe woman indicted for spending $260,000 on handbags with company debit card</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Man injured in fight he started, will be arrested after hospital release: Mobile police</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CA2: Alleged inconsistencies in dog handler’s testimony didn’t necessarily make him unbelievable</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>D.Alaska: It was litigation strategy to not file a motion to suppress and cut def’s losses</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Forest Service fires 3,400 people after 'deferred resignation' deadline passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Developer who used dark money to attack Santa Ana City Councilman Phil Bacerra fined by the FPPC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Permits filed for expansion at 2352 Atlantic Ave. in East New York</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Grocery Outlet Holding Corp. (GO) Investors: March 31, 2025 Filing Deadline in Securities Class Action - Contact Kessler Topaz Meltzer &amp; Check, LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oakland Port sees a new era of leadership as Kristi McKenney takes charge as executive director</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kanye West Allegedly Paid How Much to Get His Sex Tape Scrubbed From the Internet?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Litigation Trend: Exempt Employees Sue for Overtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Toronto officer charged with aggravated assault after man seriously injured: SIU</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>St. Paul man arrested, charged after allegedly trying to sell stolen F. Scott Fitzgerald statue fragments</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Two Mass. men part of international criminal group arrested for home improvement scams, police say</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Management of Mild Traumatic Brain Injury in the Emergency Department - Trauma EXTRA Supplement (Trauma CME)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp; Check, LLP Class Action Announcement ICLR: A Securities Fraud Class Action Lawsuit Was Filed Against ICON Public Limited Company (ICLR)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>St. Paul man arrested and charged in stolen F. Scott Fitzgerald statue, police say</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp;amp; Check, LLP Class Action Announcement ICLR: A Securities Fraud Class Action Lawsuit Was Filed Against ICON Public Limited Company (ICLR)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Released hostage Ofer Kalderon re-admitted to hospital with pneumonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Provisional liquidators appointed to medical firm which is allegedly owed €1.2m by HSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Another prosecutor resigns in latest fallout from Justice Department turmoil over NYC mayor's case</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MODV Investor Alert: A Securities Fraud Class Action Lawsuit Has Been Filed Against ModivCare Inc. (MODV) - Contact Kessler Topaz Meltzer &amp;amp; Check, LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025 Perspectives in Private Equity: AI &amp; Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Upheaval over NYC Mayor Eric Adams' case spreads as calls for his resignation grow</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ethereum Faces $3,000 Resistance – This Utility Altcoin Just Hit 7,500% Gains in 90 Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Star employee quits on the spot, now ex-CEO wants to know the real reason: 'I was just given employee of the year, then 3 weeks later I put in resignation'</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SUMOylation inhibition potentiates the glucocorticoid receptor to program growth arrest of acute lymphoblastic leukemia cells</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Foreclosure Rate by State – January 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Penticton police on Lakeshore Drive attempting arrest (Penticton)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Leonard Cohen’s Estate Sues Former Trustee for Malpractice</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Woman fined after admitting to stealing from employer</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Former Deloitte partner dinged by PCAOB for failures in Bancolombia audit</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Toronto police officer charged with assault after man seriously injured last summer: SIU</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NHS to conduct ‘wider review’ after children’s surgeon suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>$6M Zicam false advertising class action settlement</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Minnesota agency pledges air quality monitoring improvements after Smith Foundry dispute, report says</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Suburban Chicago Medical Device Company To Pay $1 Million To Resolve Federal Fraud Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RIG FINAL DEADLINE: ROSEN, A HIGHLY RECOGNIZED LAW FIRM, Encourages Transocean Ltd. Investors to Secure Counsel Before Important February 24 Deadline in Securities Class Action – RIG</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Researchers are driving the charge of zero emissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SIU charges Toronto Police officer after civilian badly injured during summer arrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Belleville, Quinte West area faces potential high threat from U.S. tariffs: study</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Construction of bifunctional Se-MoSe&lt;sub&gt;2&lt;/sub&gt;-Cu&lt;sub&gt;2&lt;/sub&gt;MoS&lt;sub&gt;4&lt;/sub&gt; Z-scheme heterojunction: Its application in photoelectrochemical biosensing and photocatalytic degradation</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Man charged with criminal damage and possessing a knife at Italian restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Houston woman faces manslaughter charge in deadly Montrose crash</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Kane County Sheriff: Bail Reform to Blame for Spike in Jail Population, Arrest Warrants – Aurora Beacon-News/Officer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>FINRA Issues 2025 Annual Regulatory Oversight Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Alberta new hot spot for auto theft as criminals flock to province</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Could Pop-Up Ads Invade Your Dashboard? Stellantis Faces Backlash</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Woman Arrested After Striking Three Vehicles (Including Two Police Cruisers) in Stolen Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Imo APC spokesman resigns</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Another prosecutor resigns in latest fallout from Justice Department turmoil over NYC mayor’s case</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TV presenter Tim Den Besten confesses to identity theft on Grindr; case now dismissed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oyomesi seek court protection from alleged arrest threat by Gov Makinde</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>13 people arrested in Croatia for illegally disposing of hazardous waste, Europol says</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Crime Spree at CVS Stores in Northwest Results in Prison Term</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Liverpool Coach Slot Charged With ‘Improper’ Conduct After Clash With Officials</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oppn calls for police action against Sawant for misleading &amp; misusing govt machinery</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,62 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Italian prosecutors open tax fraud case against Amazon: media</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Man found with serious stab wounds on Warragul property in Victoria airlifted to hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>E*Trade, Morgan Stanley Face Class Action Over Undisclosed Automatic Account Transfers</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Is it possible for vendor to take legal action for finance failure?</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Redondo Beach Councilmember Zein Obagi Jr. defers wire fraud charges for client fund misuse case</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Toronto cop charged with aggravated assault after man seriously injured: SIU</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Cemetery clash: Township accused of enacting another ban</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Alarum Sued Over Decline in Web Data Collection Revenue, Selloff</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,48 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CROX STOCK NEWS: CROX Shareholders with Large Losses Should Contact Robbins LLP for Information About the Class Action Lawsuit Against Crocs, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NTLA Investors Have Opportunity to Lead Intellia Therapeutics, Inc. Securities Fraud Lawsuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>The prosecutor’s resignation letter</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ATTOM: Foreclosure Starts Increased 8 Percent in January</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>How to Request&amp;mdash;and Not Request&amp;mdash;Company Records</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Truck stop developer suing city of Monteagle over building permits</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A139"/>
+  <dimension ref="A1:A144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,6 +1415,41 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>State seeks to stop case against it over alleged agreement with British military over legal point</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>New Data: My Top 5 Unacceptable Sales Performance Findings</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Officers arrest driver of stolen vehicle who struck two county police cruisers in White Oak</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>EPIX STOCK NEWS: EPIX Shareholders with Large Losses Should Contact Robbins LLP for Information About the Class Action Lawsuit Against Essa Pharma Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>“Looks Like A Child”: Woman Faces Backlash For Fiancée’s “Peculiar” Appearance</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A144"/>
+  <dimension ref="A1:A154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,6 +1450,76 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Vice President Vance meets Zelenskyy, Pearson airport gold heist, GST holiday and more</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Bockstael Construction Commits $100,000 to the HSC Foundation’s Operation Excellence Corporate Challenge</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ROSEN, TOP RANKED GLOBAL COUNSEL, Encourages Grocery Outlet Holding Corp. Investors to Secure Counsel Before Important Deadline in Securities Class Action - GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sources: Paramount execs weigh risks of settling Trump's lawsuit against CBS News, concerned about potential shareholder litigation or criminal bribery charges (Jessica Toonkel/Wall Street Journal)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BREAKING: SEC Says Lawsuit Against Coinbase May End - Hot Moments</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ROSEN, A LEADING LAW FIRM, Encourages FTAI Aviation Ltd. Investors to Secure Counsel Before Important Deadline in Securities Class Action - FTAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ROSEN, A TOP RANKED LAW FIRM, Encourages Innovative Industrial Properties, Inc. Investors to Secure Counsel Before Important Deadline in Securities Class Action — IIPR</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NVO STOCK NEWS: NVO Shareholders with Large Losses Should Contact Robbins LLP for Information About the Class Action Lawsuit Against Novo Nordisk A/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Natasha accused of allegedly forcing 2Face to post divorce video</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WANTED FOR THEFT IN HUNTSVILLE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A154"/>
+  <dimension ref="A1:A194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1520,286 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fiancé Stays Friends With Her Exes, But Her Partner Accuses Her Of Cheating When She Visits One In The Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CRYPTOCURRENCY FRAUD RECOVERY HACKER FOR HIRE&gt;WIZARDHILTON CYBERTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Husband of murdered food trader relieved after suspect arrested</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Cobb County man charged with sexual exploitation of a child in North Carolina</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>CT man accused of displaying firearm during road rage incident on Merritt Parkway</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Dark-Money Lawsuit By Real Estate Developers In Arizona Tries To Defy Limits On Rapidly Vanishing Groundwater</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Cell C fined R500 000 over roaming dispute with client</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Blotter: Four separate instances of identity theft</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Investigation of Al&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt;, ZrO&lt;sub&gt;2&lt;/sub&gt;, SiO&lt;sub&gt;2&lt;/sub&gt;, and CeO&lt;sub&gt;2&lt;/sub&gt; supported nickel catalysts for tri-reforming of methane</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ex politician accused of ‘parading as MP’ blames Labour tax for ‘confusing’ sign</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Man airlifted to hospital after emergency incident</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Men arrested over drugs find after car stopped on M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Truro town manager resigns. Select Board vice chair said he was forced out. 'A purge'</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2/15/2025: Arkansas: Sheriff expected to resign his post after pleading guilty</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Binance: House of Reps’ chairman Onwusibe breaks silence on allegation of bribery</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Rutherglen collision leaves pedestrian, 85, in hospital with 'serious injuries'</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Stern consequences for GPHC staff involved in misconduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Alhaurín el Grande deputy mayor shock resignation</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Gino D’Acampo ‘thinks Gordon Ramsay orchestrated smear campaign’ against him after allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>For many immigrants arrested by ICE, the next stop is rural Georgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Connecticut cannabis lab sued, lawsuit claims 'inflated' THC levels</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>AZ-900 for Cybersecurity: Building a Strong Cloud Security Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Arrest made in Wednesday’s hit-and-run</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Longbenton care worker in court accused of assaulting vulnerable patient</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Firefighters battle four-storey building blaze on Devon high street</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Lively’s lawyers demand Baldoni’s phone records in ‘It Ends with Us’ legal battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>IJMS, Vol. 26, Pages 1665: Calcium Sulfide Nanoclusters Trigger DNA Damage and Induce Cell Cycle Arrest in Non-Small-Cell Lung Adenocarcinoma Cells</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Driver arrested for drug driving on Valentine's night</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Mexican National With Prior Convictions Charged For Illegally Reentering The United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fresno Man Charged in Assault on Minor at a Veterans Affairs Facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Miami Federal Prosecutors Charge Two Foreign Nationals Headed for Florida Coast on Boat with 20 Alien Passengers</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Certain Photovoltaic Trunk Bus Cable Assemblies and Components Thereof; Notice of Institution of Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Cannabis Property Firm’s Leaders Have Been Sued Over Rent Revenue Woes</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mike Holmes-endorsed reno company says it's closing down, blames CBC News investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Former Gatineau mayor says partisan politics pushed her to resign</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Age of Revolutions: Progress and Backlash From 1600 to the Present. By Fareed Zakaria, New York: W.W. Norton &amp; Company, 2024. 400 pp. $29.99 (cloth). ISBN: 978‐0‐393‐23923‐2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sujeewa Senasinghe's Legal Battle: Fundamental Rights Petition</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PHI arrested over Rs. 200,000 bribe remanded</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Saint Vincents Catholic Medical Centers of New York Agrees to Pay $29M to Resolve Alleged False Claims Act Violations</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Reps Financial Crimes Committee chair denies bribery allegations</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/titles_to_check.xlsx
+++ b/titles_to_check.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A194"/>
+  <dimension ref="A1:A303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1800,6 +1800,769 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Wild moment police officer is knocked out after man allegedly resisting arrest sparks late-night brawl, as three are charged</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Funny reactions as Yesu Wa Tongaren allegedly seeks bursary for kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Crisis in Imo APC as stalwarts resign from partisan politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Marion County Sheriff's Office rescues 13 animals and makes arrest in animal cruelty case</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Warning to anyone who drinks fizzy drinks - doctor claims they can trigger 2 health issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Over 30,000 arrested in nationwide anti-drug and crime operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Two arrested for embezzling funds using Little Hearts project name</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>PSNI make arrest after female pedestrian 'struck by vehicle'</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Read why our founder is building andwemet: A story of rejection and redefining love…</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Taxi driver arrested after crash with 'Welcome to Bolton' road sign</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Woman ‘pushed to floor &amp; sexually assaulted’ by entrance to historic castle as man, 20, arrested &amp; cops search for BMW</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Secret probes into ‘inappropriate sexual behaviour’ in Archbishop of Wales’ home diocese</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>News24 | Self-confessed gay imam who was allegedly going to marry lesbian couple gunned down</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Out on bail, man held for vehicle theft</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Xabi Alonso’s ‘Real Madrid clause’ update as Carlo Ancelotti faces fresh challenge</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>'Rogue landlord' who had 18 people living in three-bedroom home including babies is fined £37k</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>‘The new wave of crime’: Car part theft is plaguing Melbourne, here’s why</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Casa Orsola controversy: Barcelona city government buys the building, creating moral hazard</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Meenakshi Natarajan takes charge of Telangana Cong affairs ahead of local polls</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Greece cracks down on suspected agricultural subsidy fraud</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Burton´s Udoka Godwin-Malife suffers alleged racist...</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Here Come the HELOCs: Mortgages, Housing-Debt-to-Income-Ratio, Serious Delinquencies &amp; Foreclosures in Q4 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Property management company FirstPort suspended by trade body after breach of rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michael Magruder: Financial Advisor's Costly Loan Scandal - Investment &amp; Securities Fraud Lawyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Central Vermont man with arrest warrant trespasses, found week later police say</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mark Hughes´ first home game in charge of bottom side...</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Slidell man arrested for intentionally parking truck on train track, causing crash</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ROSEN, NATIONAL TRIAL LAWYERS, Encourages Walgreens Boots Alliance, Inc. Investors to Secure Counsel Before Important Deadline in Securities Class Action - WBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Cabcharge review ordered as hospital blasts ‘utterly disgraceful, unethical and unacceptable’ conduct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>B.C. drug rehab facility faces closure over abuse, safety violation allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>TOP RANKED ROSEN LAW FIRM Encourages Light &amp; Wonder, Inc. Investors to Inquire About Securities Class Action Investigation - LNW</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Family tributes as rail firm fined £4m for deaths</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Kansas woman charged with wire fraud over $260k handbag purchases</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Man arrested after showing gun to neighbor during argument in Little Torch Key: MCSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Evans in charge of four-way fight to win Rally Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>'Mass Theft': Thousands of Artists Call for AI Art Auction to be Cancelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Man arrested after intentionally parking truck on train tracks during Slidell parade</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>They Were VIP Gamblers With Betting Problems. Now, They’re Suing DraftKings</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Neuroscience doctors to decide on ending strike after director’s resignation notice</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>News24 | Principal of top Pretoria school to face six charges of misconduct at disciplinary hearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Winnipeg Police Arrest Suspect After Random Assault Downtown</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1000s of Fantasy Heist Ideas</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>MRK Investors Have Opportunity to Lead Merck &amp;amp; Co., Inc. Securities Fraud Lawsuit with the Schall Law Firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>FTAI Aviation Ltd. (FTAI) Investors: March 18, 2025 Filing Deadline in Securities Class Action - Contact Kessler Topaz Meltzer &amp; Check, LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SIU investigates eThekwini Municipality’s Water and Sanitation Unit over alleged maladministration</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>‘King of Crocodiles’ behind bars: Man faces criminal charges for brutal torture of crocodile</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Deliveroo driver arrested after returning to airport to collect bag containing €24,000 worth of pills</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Megha Engineering And Infrastructure Loses Rs 5.5 Crore In Phishing Scam</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Gachagua Speaks on Forgiving Ruto Amid Betrayal Allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Pair stopped on suspicion of theft in town centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Bank manager grilled in Gono fraud case -Newsday Zimbabwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ROSEN, A LEADING LAW FIRM, Encourages Edison International Investors to Secure Counsel Before Important Deadline in Securities Class Action First Filed by the Firm – EIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puspakom insists it’s compliant with JPJ inspection regs after accused of failing lorries unreasonably</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Food Head at FDA Resigns, Citing Numerous Job Cuts in Division</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>18/02/2025: Sport: United malaise comes from the top and Amorim faces a battle to fix it</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>18/02/2025: Sport: FA investigating alleged racist abuse of Mejbri</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>West Tamar man charged with fraud after police seize four vehicles</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Cost claims by builders of new National Children’s Hospital rise another €100m amid fears final bill could still increase</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Drunk driver charged in resisting arrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>The Great Social Security Heist: How Politicians Robbed You Blind and Blamed Everyone but…</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Former Yorkshire police officer jailed after sending inappropriate messages to crime victim</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Aboriginal heritage laws create chaos as first WA farmer fined for breach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Police arrest 2 suspected robbers in Benue</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Man accused of violent attack needs mental health assessed</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Rivervale man, 52, arrested after allegedly pointing laser at commercial planes and police helicopter</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Four NYC Deputy Mayors Resign Over Federal Involvement in Adams Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Akali Dal crisis deepens, Sikh body chief Harjinder Dhami resigns on moral grounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>San Pedro Employee Charged with Theft of over $500,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Carla Freedman Concludes Her Service as United States Attorney</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Linklaters hires CMA litigation chief in London</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Man blinds pilots landing at Perth Airport with laser, then turns it on police chopper: police allege</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Woman’s Mugshot Breaks The Internet After She’s Arrested For Filling Her Ex-Boyfriend’s Gas Tank With Already Sucked Skittles &amp; Coke Zero</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Alleged Leader of 'Zizians' Group Arrested, Linked to Multiple US Killings</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mizuho Employee Suspected of Theft in Latest Safety Box Case</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>BORO PARK: NYPD and Shomrim Nab Mail Theft Suspects in Early Morning Arrest</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Questions to Ask a Debt Settlement Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Deputies chase, arrest 'highly intoxicated' man on I-70 during 'holiday weekend chaos'</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Litigation in Corporate Law: Protecting Your Business from Legal Disputes</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>How to Prevent Theft in the Workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>NT judge says 'tidal wave' of arrests behind 'concerning' custody waits</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>I just played Killzone 2 at 60FPS and I feel like I should be arrested.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Train crashes into truck in southern Oregon; 2 arrested</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Pinellas Park tile shop owner arrested again in scheme to defraud case</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Kessler Topaz Meltzer &amp; Check, LLP - Class Action Announcement for Neumora Therapeutics, Inc. Investors: A Securities Fraud Class Action Lawsuit Was Filed Against Neumora Therapeutics, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Petty theft at Hobby Lobby ends with arrest of three women</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Northglenn police searching for man accused of shoplifting, injuring officer</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Missouri Truck Company Owner Gets 9 Years For PPP Fraud, Other Felonies</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Man fined, vehicle seized for repeatedly colliding with another car</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Disney Forever Changes Toy Story Land, Corrects Wrongdoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Person in Crisis Dies Following Arrest by Quebec City Police (February 14-17, 2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>At least 3 NYC deputy mayors express intent to resign from Adams administration: Sources (Melissa Russo/NBC New York)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Ravens kickers, Justin Tucker faces allegations of sexual misconduct from 16 massage therapist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Panini’s employee to be charged for involvement in theft and cashing of $7,000 check: Highland Heights Police Blotter</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>New York city council calls for under-fire mayor's resignation</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Pervasive Police Corruption in Albuquerque Explains Why a Teetotaler Was Arrested for DWI</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Honda allegedly to resume merger talks if Nissan's Uchida leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Boy, 10, in hospital with critical injuries after North Liverpool Rd crash</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>the democrats should demand all contracts with a musk company be cancelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Eviction protection for those affected by wildfires up for LA County Board of Supervisors vote</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VA high school athletic director arrested while visiting family in Pennsylvania, accused of sending sexually explicit photos to underage student</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>New York City Council Calls for Mayor Adams' Resignation</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Road Workers Aid In Drunk Driver Arrest On SH 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Three held for theft, stolen property recovered</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Alaska Energy Metals Announces Resignation Of Director</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ROSEN, A LEADING INVESTOR RIGHTS LAW FIRM, Encourages Alarum Technologies Ltd. Investors to Secure Counsel Before Important Deadline in Securities Class Action – ALAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Man arrested after woman dies in hospital with ‘serious injuries’</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Suspect arrested in theft at construction site in The Villages</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Fact-Check: Did Washoe County mislead the legislature on homeless numbers? Yes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Does car insurance cover theft?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
